--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Vtn-Plaur.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Vtn-Plaur.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,13 +85,13 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Vtn</t>
+  </si>
+  <si>
+    <t>Plaur</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Vtn</t>
-  </si>
-  <si>
-    <t>Plaur</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,10 +522,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
         <v>24</v>
-      </c>
-      <c r="C2" t="s">
-        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>12.75206033333333</v>
+        <v>7.844453333333334</v>
       </c>
       <c r="H2">
-        <v>38.256181</v>
+        <v>23.53336</v>
       </c>
       <c r="I2">
-        <v>0.157312234338196</v>
+        <v>0.1489290605659587</v>
       </c>
       <c r="J2">
-        <v>0.157312234338196</v>
+        <v>0.1489290605659588</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>27.81717833333333</v>
+        <v>15.03463666666667</v>
       </c>
       <c r="N2">
-        <v>83.45153500000001</v>
+        <v>45.10391</v>
       </c>
       <c r="O2">
-        <v>0.4044740580248731</v>
+        <v>0.2402934356091235</v>
       </c>
       <c r="P2">
-        <v>0.4044740580248732</v>
+        <v>0.2402934356091235</v>
       </c>
       <c r="Q2">
-        <v>354.7263364097594</v>
+        <v>117.9385057152889</v>
       </c>
       <c r="R2">
-        <v>3192.537027687835</v>
+        <v>1061.4465514376</v>
       </c>
       <c r="S2">
-        <v>0.06362871779972991</v>
+        <v>0.03578667562543346</v>
       </c>
       <c r="T2">
-        <v>0.06362871779972992</v>
+        <v>0.03578667562543347</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,10 +584,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
         <v>24</v>
-      </c>
-      <c r="C3" t="s">
-        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>12.75206033333333</v>
+        <v>7.844453333333334</v>
       </c>
       <c r="H3">
-        <v>38.256181</v>
+        <v>23.53336</v>
       </c>
       <c r="I3">
-        <v>0.157312234338196</v>
+        <v>0.1489290605659587</v>
       </c>
       <c r="J3">
-        <v>0.157312234338196</v>
+        <v>0.1489290605659588</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>14.482232</v>
       </c>
       <c r="O3">
-        <v>0.0701926830500802</v>
+        <v>0.07715484716443403</v>
       </c>
       <c r="P3">
-        <v>0.0701926830500802</v>
+        <v>0.07715484716443403</v>
       </c>
       <c r="Q3">
-        <v>61.55943207511022</v>
+        <v>37.86839769550222</v>
       </c>
       <c r="R3">
-        <v>554.034888675992</v>
+        <v>340.81557925952</v>
       </c>
       <c r="S3">
-        <v>0.01104216780480093</v>
+        <v>0.01149059890630929</v>
       </c>
       <c r="T3">
-        <v>0.01104216780480093</v>
+        <v>0.01149059890630929</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,10 +646,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
         <v>24</v>
-      </c>
-      <c r="C4" t="s">
-        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>12.75206033333333</v>
+        <v>7.844453333333334</v>
       </c>
       <c r="H4">
-        <v>38.256181</v>
+        <v>23.53336</v>
       </c>
       <c r="I4">
-        <v>0.157312234338196</v>
+        <v>0.1489290605659587</v>
       </c>
       <c r="J4">
-        <v>0.157312234338196</v>
+        <v>0.1489290605659588</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.066688333333333</v>
+        <v>6.211932333333333</v>
       </c>
       <c r="N4">
-        <v>12.200065</v>
+        <v>18.635797</v>
       </c>
       <c r="O4">
-        <v>0.05913144436129574</v>
+        <v>0.09928318157880762</v>
       </c>
       <c r="P4">
-        <v>0.05913144436129574</v>
+        <v>0.09928318157880764</v>
       </c>
       <c r="Q4">
-        <v>51.85865498352944</v>
+        <v>48.72921329865778</v>
       </c>
       <c r="R4">
-        <v>466.727894851765</v>
+        <v>438.56291968792</v>
       </c>
       <c r="S4">
-        <v>0.009302099632120153</v>
+        <v>0.01478615096253132</v>
       </c>
       <c r="T4">
-        <v>0.009302099632120153</v>
+        <v>0.01478615096253132</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,14 +708,14 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>25</v>
       </c>
-      <c r="D5" t="s">
-        <v>23</v>
-      </c>
       <c r="E5">
         <v>3</v>
       </c>
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>12.75206033333333</v>
+        <v>7.844453333333334</v>
       </c>
       <c r="H5">
-        <v>38.256181</v>
+        <v>23.53336</v>
       </c>
       <c r="I5">
-        <v>0.157312234338196</v>
+        <v>0.1489290605659587</v>
       </c>
       <c r="J5">
-        <v>0.157312234338196</v>
+        <v>0.1489290605659588</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>32.06242466666667</v>
+        <v>36.49384133333334</v>
       </c>
       <c r="N5">
-        <v>96.187274</v>
+        <v>109.481524</v>
       </c>
       <c r="O5">
-        <v>0.4662018145637509</v>
+        <v>0.5832685356476348</v>
       </c>
       <c r="P5">
-        <v>0.466201814563751</v>
+        <v>0.5832685356476348</v>
       </c>
       <c r="Q5">
-        <v>408.8619737822882</v>
+        <v>286.2742352934045</v>
       </c>
       <c r="R5">
-        <v>3679.757764040594</v>
+        <v>2576.46811764064</v>
       </c>
       <c r="S5">
-        <v>0.07333924910154496</v>
+        <v>0.08686563507168465</v>
       </c>
       <c r="T5">
-        <v>0.07333924910154498</v>
+        <v>0.08686563507168468</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,10 +770,10 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
         <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
@@ -785,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>20.35396833333333</v>
+        <v>20.35396833333334</v>
       </c>
       <c r="H6">
-        <v>61.061905</v>
+        <v>61.06190500000001</v>
       </c>
       <c r="I6">
-        <v>0.2510910513649195</v>
+        <v>0.3864255740794268</v>
       </c>
       <c r="J6">
-        <v>0.2510910513649195</v>
+        <v>0.3864255740794268</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>27.81717833333333</v>
+        <v>15.03463666666667</v>
       </c>
       <c r="N6">
-        <v>83.45153500000001</v>
+        <v>45.10391</v>
       </c>
       <c r="O6">
-        <v>0.4044740580248731</v>
+        <v>0.2402934356091235</v>
       </c>
       <c r="P6">
-        <v>0.4044740580248732</v>
+        <v>0.2402934356091235</v>
       </c>
       <c r="Q6">
-        <v>566.1899669193527</v>
+        <v>306.0145186165056</v>
       </c>
       <c r="R6">
-        <v>5095.709702274175</v>
+        <v>2754.13066754855</v>
       </c>
       <c r="S6">
-        <v>0.1015598164793009</v>
+        <v>0.09285552880277333</v>
       </c>
       <c r="T6">
-        <v>0.1015598164793009</v>
+        <v>0.09285552880277334</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,10 +832,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
         <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>20.35396833333333</v>
+        <v>20.35396833333334</v>
       </c>
       <c r="H7">
-        <v>61.061905</v>
+        <v>61.06190500000001</v>
       </c>
       <c r="I7">
-        <v>0.2510910513649195</v>
+        <v>0.3864255740794268</v>
       </c>
       <c r="J7">
-        <v>0.2510910513649195</v>
+        <v>0.3864255740794268</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>14.482232</v>
       </c>
       <c r="O7">
-        <v>0.0701926830500802</v>
+        <v>0.07715484716443403</v>
       </c>
       <c r="P7">
-        <v>0.0701926830500802</v>
+        <v>0.07715484716443403</v>
       </c>
       <c r="Q7">
-        <v>98.25696384132887</v>
+        <v>98.2569638413289</v>
       </c>
       <c r="R7">
-        <v>884.31267457196</v>
+        <v>884.3126745719601</v>
       </c>
       <c r="S7">
-        <v>0.0176247545851692</v>
+        <v>0.02981460610852685</v>
       </c>
       <c r="T7">
-        <v>0.0176247545851692</v>
+        <v>0.02981460610852685</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,10 +894,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
         <v>24</v>
-      </c>
-      <c r="C8" t="s">
-        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>22</v>
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>20.35396833333333</v>
+        <v>20.35396833333334</v>
       </c>
       <c r="H8">
-        <v>61.061905</v>
+        <v>61.06190500000001</v>
       </c>
       <c r="I8">
-        <v>0.2510910513649195</v>
+        <v>0.3864255740794268</v>
       </c>
       <c r="J8">
-        <v>0.2510910513649195</v>
+        <v>0.3864255740794268</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.066688333333333</v>
+        <v>6.211932333333333</v>
       </c>
       <c r="N8">
-        <v>12.200065</v>
+        <v>18.635797</v>
       </c>
       <c r="O8">
-        <v>0.05913144436129574</v>
+        <v>0.09928318157880762</v>
       </c>
       <c r="P8">
-        <v>0.05913144436129574</v>
+        <v>0.09928318157880764</v>
       </c>
       <c r="Q8">
-        <v>82.77324555820277</v>
+        <v>126.4374740014761</v>
       </c>
       <c r="R8">
-        <v>744.959210023825</v>
+        <v>1137.937266013285</v>
       </c>
       <c r="S8">
-        <v>0.01484737653340399</v>
+        <v>0.03836556043802271</v>
       </c>
       <c r="T8">
-        <v>0.01484737653340399</v>
+        <v>0.03836556043802272</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,14 +956,14 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
         <v>24</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>25</v>
       </c>
-      <c r="D9" t="s">
-        <v>23</v>
-      </c>
       <c r="E9">
         <v>3</v>
       </c>
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>20.35396833333333</v>
+        <v>20.35396833333334</v>
       </c>
       <c r="H9">
-        <v>61.061905</v>
+        <v>61.06190500000001</v>
       </c>
       <c r="I9">
-        <v>0.2510910513649195</v>
+        <v>0.3864255740794268</v>
       </c>
       <c r="J9">
-        <v>0.2510910513649195</v>
+        <v>0.3864255740794268</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>32.06242466666667</v>
+        <v>36.49384133333334</v>
       </c>
       <c r="N9">
-        <v>96.187274</v>
+        <v>109.481524</v>
       </c>
       <c r="O9">
-        <v>0.4662018145637509</v>
+        <v>0.5832685356476348</v>
       </c>
       <c r="P9">
-        <v>0.466201814563751</v>
+        <v>0.5832685356476348</v>
       </c>
       <c r="Q9">
-        <v>652.5975763552187</v>
+        <v>742.794490860358</v>
       </c>
       <c r="R9">
-        <v>5873.37818719697</v>
+        <v>6685.150417743222</v>
       </c>
       <c r="S9">
-        <v>0.1170591037670455</v>
+        <v>0.2253898787301039</v>
       </c>
       <c r="T9">
-        <v>0.1170591037670455</v>
+        <v>0.2253898787301039</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,10 +1018,10 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
         <v>24</v>
-      </c>
-      <c r="C10" t="s">
-        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>47.951367</v>
+        <v>24.47399366666667</v>
       </c>
       <c r="H10">
-        <v>143.854101</v>
+        <v>73.421981</v>
       </c>
       <c r="I10">
-        <v>0.5915386600409098</v>
+        <v>0.4646453653546145</v>
       </c>
       <c r="J10">
-        <v>0.5915386600409098</v>
+        <v>0.4646453653546145</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>27.81717833333333</v>
+        <v>15.03463666666667</v>
       </c>
       <c r="N10">
-        <v>83.45153500000001</v>
+        <v>45.10391</v>
       </c>
       <c r="O10">
-        <v>0.4044740580248731</v>
+        <v>0.2402934356091235</v>
       </c>
       <c r="P10">
-        <v>0.4044740580248732</v>
+        <v>0.2402934356091235</v>
       </c>
       <c r="Q10">
-        <v>1333.871727166115</v>
+        <v>367.9576025606344</v>
       </c>
       <c r="R10">
-        <v>12004.84554449504</v>
+        <v>3311.61842304571</v>
       </c>
       <c r="S10">
-        <v>0.2392620423053426</v>
+        <v>0.1116512311809167</v>
       </c>
       <c r="T10">
-        <v>0.2392620423053427</v>
+        <v>0.1116512311809167</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,10 +1080,10 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
         <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>21</v>
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>47.951367</v>
+        <v>24.47399366666667</v>
       </c>
       <c r="H11">
-        <v>143.854101</v>
+        <v>73.421981</v>
       </c>
       <c r="I11">
-        <v>0.5915386600409098</v>
+        <v>0.4646453653546145</v>
       </c>
       <c r="J11">
-        <v>0.5915386600409098</v>
+        <v>0.4646453653546145</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>14.482232</v>
       </c>
       <c r="O11">
-        <v>0.0701926830500802</v>
+        <v>0.07715484716443403</v>
       </c>
       <c r="P11">
-        <v>0.0701926830500802</v>
+        <v>0.07715484716443403</v>
       </c>
       <c r="Q11">
-        <v>231.480940537048</v>
+        <v>118.1460180823991</v>
       </c>
       <c r="R11">
-        <v>2083.328464833432</v>
+        <v>1063.314162741592</v>
       </c>
       <c r="S11">
-        <v>0.04152168567612072</v>
+        <v>0.03584964214959789</v>
       </c>
       <c r="T11">
-        <v>0.04152168567612072</v>
+        <v>0.0358496421495979</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,10 +1142,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
         <v>24</v>
-      </c>
-      <c r="C12" t="s">
-        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>22</v>
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>47.951367</v>
+        <v>24.47399366666667</v>
       </c>
       <c r="H12">
-        <v>143.854101</v>
+        <v>73.421981</v>
       </c>
       <c r="I12">
-        <v>0.5915386600409098</v>
+        <v>0.4646453653546145</v>
       </c>
       <c r="J12">
-        <v>0.5915386600409098</v>
+        <v>0.4646453653546145</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>4.066688333333333</v>
+        <v>6.211932333333333</v>
       </c>
       <c r="N12">
-        <v>12.200065</v>
+        <v>18.635797</v>
       </c>
       <c r="O12">
-        <v>0.05913144436129574</v>
+        <v>0.09928318157880762</v>
       </c>
       <c r="P12">
-        <v>0.05913144436129574</v>
+        <v>0.09928318157880764</v>
       </c>
       <c r="Q12">
-        <v>195.003264746285</v>
+        <v>152.0307925837619</v>
       </c>
       <c r="R12">
-        <v>1755.029382716565</v>
+        <v>1368.277133253857</v>
       </c>
       <c r="S12">
-        <v>0.0349785353637645</v>
+        <v>0.0461314701782536</v>
       </c>
       <c r="T12">
-        <v>0.0349785353637645</v>
+        <v>0.04613147017825361</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,14 +1204,14 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
         <v>24</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
       <c r="E13">
         <v>3</v>
       </c>
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>47.951367</v>
+        <v>24.47399366666667</v>
       </c>
       <c r="H13">
-        <v>143.854101</v>
+        <v>73.421981</v>
       </c>
       <c r="I13">
-        <v>0.5915386600409098</v>
+        <v>0.4646453653546145</v>
       </c>
       <c r="J13">
-        <v>0.5915386600409098</v>
+        <v>0.4646453653546145</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,276 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>32.06242466666667</v>
+        <v>36.49384133333334</v>
       </c>
       <c r="N13">
-        <v>96.187274</v>
+        <v>109.481524</v>
       </c>
       <c r="O13">
-        <v>0.4662018145637509</v>
+        <v>0.5832685356476348</v>
       </c>
       <c r="P13">
-        <v>0.466201814563751</v>
+        <v>0.5832685356476348</v>
       </c>
       <c r="Q13">
-        <v>1537.437092101186</v>
+        <v>893.1500416643383</v>
       </c>
       <c r="R13">
-        <v>13836.93382891068</v>
+        <v>8038.350374979045</v>
       </c>
       <c r="S13">
-        <v>0.2757763966956819</v>
+        <v>0.2710130218458462</v>
       </c>
       <c r="T13">
-        <v>0.275776396695682</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G14">
-        <v>0.004706</v>
-      </c>
-      <c r="H14">
-        <v>0.014118</v>
-      </c>
-      <c r="I14">
-        <v>5.805425597465285E-05</v>
-      </c>
-      <c r="J14">
-        <v>5.805425597465285E-05</v>
-      </c>
-      <c r="K14">
-        <v>3</v>
-      </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
-      <c r="M14">
-        <v>27.81717833333333</v>
-      </c>
-      <c r="N14">
-        <v>83.45153500000001</v>
-      </c>
-      <c r="O14">
-        <v>0.4044740580248731</v>
-      </c>
-      <c r="P14">
-        <v>0.4044740580248732</v>
-      </c>
-      <c r="Q14">
-        <v>0.1309076412366667</v>
-      </c>
-      <c r="R14">
-        <v>1.17816877113</v>
-      </c>
-      <c r="S14">
-        <v>2.348144049968258E-05</v>
-      </c>
-      <c r="T14">
-        <v>2.348144049968258E-05</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G15">
-        <v>0.004706</v>
-      </c>
-      <c r="H15">
-        <v>0.014118</v>
-      </c>
-      <c r="I15">
-        <v>5.805425597465285E-05</v>
-      </c>
-      <c r="J15">
-        <v>5.805425597465285E-05</v>
-      </c>
-      <c r="K15">
-        <v>3</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>4.827410666666666</v>
-      </c>
-      <c r="N15">
-        <v>14.482232</v>
-      </c>
-      <c r="O15">
-        <v>0.0701926830500802</v>
-      </c>
-      <c r="P15">
-        <v>0.0701926830500802</v>
-      </c>
-      <c r="Q15">
-        <v>0.02271779459733333</v>
-      </c>
-      <c r="R15">
-        <v>0.204460151376</v>
-      </c>
-      <c r="S15">
-        <v>4.074983989337032E-06</v>
-      </c>
-      <c r="T15">
-        <v>4.074983989337032E-06</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G16">
-        <v>0.004706</v>
-      </c>
-      <c r="H16">
-        <v>0.014118</v>
-      </c>
-      <c r="I16">
-        <v>5.805425597465285E-05</v>
-      </c>
-      <c r="J16">
-        <v>5.805425597465285E-05</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>4.066688333333333</v>
-      </c>
-      <c r="N16">
-        <v>12.200065</v>
-      </c>
-      <c r="O16">
-        <v>0.05913144436129574</v>
-      </c>
-      <c r="P16">
-        <v>0.05913144436129574</v>
-      </c>
-      <c r="Q16">
-        <v>0.01913783529666667</v>
-      </c>
-      <c r="R16">
-        <v>0.17224051767</v>
-      </c>
-      <c r="S16">
-        <v>3.432832007101606E-06</v>
-      </c>
-      <c r="T16">
-        <v>3.432832007101606E-06</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G17">
-        <v>0.004706</v>
-      </c>
-      <c r="H17">
-        <v>0.014118</v>
-      </c>
-      <c r="I17">
-        <v>5.805425597465285E-05</v>
-      </c>
-      <c r="J17">
-        <v>5.805425597465285E-05</v>
-      </c>
-      <c r="K17">
-        <v>3</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>32.06242466666667</v>
-      </c>
-      <c r="N17">
-        <v>96.187274</v>
-      </c>
-      <c r="O17">
-        <v>0.4662018145637509</v>
-      </c>
-      <c r="P17">
-        <v>0.466201814563751</v>
-      </c>
-      <c r="Q17">
-        <v>0.1508857704813333</v>
-      </c>
-      <c r="R17">
-        <v>1.357971934332</v>
-      </c>
-      <c r="S17">
-        <v>2.706499947853164E-05</v>
-      </c>
-      <c r="T17">
-        <v>2.706499947853164E-05</v>
+        <v>0.2710130218458463</v>
       </c>
     </row>
   </sheetData>
